--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/33_Gaziantep_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/33_Gaziantep_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{527A2855-6375-46C9-A51F-220B660A49E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A66EC7-2DF1-476C-AE66-027F408E6BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="667" xr2:uid="{7C09890D-6913-43E4-9FEE-AB2D8BB746AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{100A6B76-2D18-45B0-9A8B-20225F0E0E69}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{597EDBF6-1B0C-48D1-AFB3-B609737A5BA3}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{04726F8F-75AE-4362-870A-13C8585AA407}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{812488FF-1AF1-4618-ADD4-B189C2D36539}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6AA1ED6C-3A8B-430E-8082-453AF167AB77}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8DD9E001-5F94-480A-9B5F-05F84646EBD7}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0A0B531F-12F8-4842-BD4F-BBE134453AC9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D760F16A-E48E-4BE5-9843-9F937B76E142}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B434B083-8268-4752-A218-DDF200F4B809}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5E544574-4EAB-474F-A59E-1CFE5169B3F4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F4BA37BE-E805-4B65-B4FD-5ED5594C5B5C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{486F4A79-25B8-4081-B4B3-3831BC5A2163}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{541202DD-0ED4-46F2-8E45-DA6DBAD751FF}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5D14EBF6-1531-4313-931D-D45061C56AB4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A9B32E18-D82B-422F-B058-452DB70394C6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3058403-DBFA-4655-8604-803E5B807A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB267-C704-4EBB-888F-D0F7596EC637}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2652,17 +2652,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EA38105-AE91-4992-9B15-AD53E5AA047A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DCEDA91-642A-4FAC-8CE7-E4BDF51AABB3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79A9B53B-63C3-4CF0-9BE2-791682EA7D66}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E118EDB4-A062-4100-B004-DEA640F1A9A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F71661C0-4595-4880-9327-46EAC7B37174}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C1CBD2E-DE47-4270-9743-FDC32710E276}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62AEF011-BB95-4840-BAA5-912124A11691}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3682D9EE-0088-4A63-B57A-A0ABE1713DD8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C47E72AB-45C1-497C-86AA-49377B652B3C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8136DEC4-639E-4334-9FFA-EC1B917922EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D64A082-4876-4792-84B7-83B514B3B1BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70B26879-10BC-486E-8409-DEE3DF127E0C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5C7B5D8-BE94-4D1B-BE60-5FD6EC819BAD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2924802C-7134-4AB2-A360-2C9CF99B2CA2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D20B73E-F595-4A93-9F24-82DFF35C185B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D296F637-2BB8-4014-AD2A-9C4A7B469A6F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93A065B0-5BC1-416E-8CB9-86F46B168B24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A36D57C0-947F-457C-8996-EBBF41ADC3CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DAECDD3-DBCF-4126-9250-3C37F1472689}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2FBAA20A-6864-4A93-9973-757CEA7D7029}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{79F648BA-7CC5-4BF4-A43F-8CB64B1FA968}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51614643-7894-4751-A061-66BAD1C93666}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2675,7 +2675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AE629D-092A-422E-B24A-772B2AE5CFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D495403-F8F3-4DFA-95A0-D80C2CE1F0B4}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3973,17 +3973,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72942ACB-E02C-43F1-BC24-3754045D82F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEFADED7-7911-4101-A79E-6E6965BDB9B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14B08ACF-FC77-4F7E-ABF2-F2F738E83142}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{707D24DC-C708-4F97-A636-F0A4389E3D4C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CC76416-4332-413E-8337-9732AEA4C892}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD2C9BA1-78D0-460D-A692-092667666F7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF7126F7-6F1A-45FF-9BE5-F4D3173C67D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42E71537-CD75-4E8F-BA40-67CC297B21A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{399919A8-4683-4461-A9DD-764516AD89F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D93B4C95-10CC-4F26-B2B9-B08442B5FA6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C9A1E3B-D35D-46C2-9046-964CCE5F88C2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3DA16A4-123B-4374-9155-D525898D6357}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6D7A521-6028-4608-AEB0-05345865A553}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4CBD18DA-C977-46F9-B4BA-99ECE75F9D9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5895CF56-CD71-406D-8C53-B88D18262D8E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B324733-FADE-4943-94AA-AE4F156278D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A22C8F70-89C7-4A3D-AD9C-AFDF1EA95FBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B27871C-9070-40C7-9645-10BCA218EFD6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DE8C564-FFEE-46C7-B69C-7F4CA029C4CE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A1E21F97-D833-4DD8-96CD-CC93A62D1D6E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1CDEB5E5-00BE-48DD-99E5-B47A2A7CF02D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06BE461B-88FF-4D6E-84C4-09E5BDE15CC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3996,7 +3996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08851FA-BE35-4753-9A81-1F921397797E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D6C976-3E39-4CFB-A70F-6BA06D31600A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5294,17 +5294,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E6F2E27-D994-4941-B09E-7DBB088C30F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EEF04F5-712E-461A-8507-C5237CA9218C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D84A4C76-3580-4B2B-947A-5B6457D2DBB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4932F788-7EC8-4BF7-81F8-7301060A217E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{02595BD5-4831-47A9-A98A-5D1DFF55AC29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73633353-32CA-4554-84FA-C207EE920213}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF71CDD2-8D8F-4F89-88C6-402D2A924603}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BC921BF-031B-4731-93B2-FFF46421CC51}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D582C4D4-4972-4FFF-957F-F70625C2C23A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E362212-FA6D-47CF-A624-0C0C9C877C97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F879054-0D38-4E06-B873-B8E6BD75156A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B384847-79A0-4E58-8A7D-F01BF7696BA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F64C2129-116E-4195-ACA6-9E1F6988C5E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4788DE23-953D-43AA-AA84-0A0D121D4E9B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90957415-F6BB-43CE-964E-3B762CCB1122}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{458CEF15-DD50-428B-90C2-3CA349199D4A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1BF1A424-C140-42EE-9747-2981E4903AB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05E86523-7DDB-4762-953B-3D0D13A3226A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D415B4F4-14CE-415E-9AEC-3ADF2BBB0BC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5096E78E-84A2-4965-95E9-ED6D23BF03A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9BC20AF4-89CA-44A7-ACF3-94E45C499C18}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99E54C67-AF9B-401A-9AC8-8B7B9550B335}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5317,7 +5317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E360DF2-96F5-4B3A-A43B-4EC4A5B52DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AAD5CB-18E0-4A45-9E46-2DF731007ADA}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6597,17 +6597,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A8D734A-D3AA-41BC-B8A6-93CCE41548D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1C1D791-1435-4CA9-9F47-ECB675BCD7A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A42063E7-C220-4646-8023-B10788393413}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EEC2D30-1004-484B-8CBD-71ABB8440BD3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA70FEFE-2EE9-498F-BA71-837F6A0869F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD1293B2-4628-4AC3-B70A-C9C1E61221DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F240BB8-0E65-4B0C-A162-63934FEF779C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8A54CF4-BE0F-4C9F-929A-FDEDA19794BD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D76E64B7-C317-4F4E-94F1-28548CB57510}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A39BEF43-0B4C-4A6D-9292-543E3793B19B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B04A726-4BDF-4F8E-8450-73C0C66F2DFF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BD02D46-0FB0-4E90-BEA0-31D38DBE1491}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69C3D772-FA2F-444F-A88E-A1D8A9840D17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{72510021-241B-4B88-8C67-06F68B23DB87}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34FC5821-58BA-4097-8534-BDFC0E5F5024}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D609AABA-B274-42DA-AD65-8865D82047C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1424D2CD-7FBA-4ADA-AE18-C04E1CC1CA98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4717FBD-B610-4426-8FF0-AA7754734484}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{050871D7-2024-4181-93FF-0426EA3AA9FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ED9663D1-7586-4415-AFAC-E8E0FCE14116}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B2EFC961-B1E1-4172-8557-7CFBCE00A73C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43ED9984-FA4F-41AD-B196-2DABB493A194}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6620,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A04F07-5CD4-47A2-ABDD-C6CA8E1AB88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F839E9-8D75-4F67-8F94-16CE0D9C5366}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7917,17 +7917,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E3A0511-2045-401C-B917-878300D792AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BB00C21-DFA7-41B5-8F76-B817741F80E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7904617F-912F-4AA2-9184-7E61E7A4593F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9434516-C8EF-465A-AE6D-0D04116A53C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B66E1646-C910-42AF-9CF4-F516233AA199}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16A1B0F5-884D-4DC0-888C-6FADC064E88B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BC92127-A93A-466C-9185-2958950022C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43E24AE5-84C1-4652-B3EF-1A583C211EBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{525C2BDC-7F49-438C-8376-D54DE8E4BCE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{885649AB-266F-4A51-9FB0-BCAFE1A6DC05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CB7373E-51FF-45BE-AA44-853A38B76C32}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84349E21-7C9D-4549-83CE-8CE185E2081B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{611D714A-CA4D-4DF5-8332-9FE77A735B64}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71A8FA3D-76DA-4678-A5F2-DF6953D7203D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F6023A8-2903-469B-800F-5C4CFB14A528}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A3907AF-48A7-4A48-8467-D7FAE662698B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FFFF10A-CF95-4781-AEE1-1CE89E50D418}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C76F13D-9766-4F64-AD45-F05CAA498D8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B781744-D684-4836-A51A-A26FDE7C48C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8C428292-A2A4-4619-AF98-335C12FCDD89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F20788E2-673D-456B-9515-04AA35C78F70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{314061D4-1127-4059-B846-5FC83360DEFF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7940,7 +7940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A51326-03DF-4C11-A558-865D7E18606F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D92F0E3-9584-44B4-B58B-36D0BB536E4E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9237,17 +9237,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C511361-EADC-44FD-B672-EC232670C5AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A098AB0C-573C-4B05-8283-D2E0896A55FB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F4461213-2BCC-4A97-924D-D6BD0ADDEBC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F227472-656B-4DE2-9F1A-8635C7572ABC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B788B00D-AF31-43FD-AFDF-B4066DE38C02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2718B8A2-96C1-4F39-869C-D47E731503C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7924BD95-3274-43E0-87D2-0435C8B149F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D383D4E2-6387-48EE-842A-E719C27660FF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DE5057BB-BD86-4588-9535-1807DBE47E35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5C3FB5AD-2267-4A84-9322-E5E926CFB727}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44D0BEA5-84E4-43E4-9D3D-B95A2A5D46D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{333B23E8-B93C-4469-983E-416C72CC2279}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3620A25D-610F-417E-9875-BE164A9311C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1230CB2-51CF-4B24-9B24-D47EA7964BA1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3E9EB97-7837-46E7-B6B3-379CBC656EA3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0200B64-B33D-480C-B4E5-F915B77B8B78}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDDBB655-9ED6-454A-A7B7-2B92DC2438F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73ABB905-E410-4E31-8703-D4A94569DB0F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EB39425-75C0-4ACD-B594-A76CFE0AF09F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C594714B-9B32-4E45-A01E-651D9A257BC5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6C562DA1-9FE4-4DE5-A1BB-E156D227EE76}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{443227C5-478F-4AEC-BD07-441989363BFA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9260,7 +9260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEDC54B-EF98-4D65-B97C-B9119B58A2E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0022202F-7C1C-4E5B-8CC0-D21E3FFD1A42}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10557,17 +10557,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F66C140-9F5C-4CDB-AD93-C26859BFFC25}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EF34CF2-D77C-4FDA-9EC0-1158B71B9B3F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E75B14E1-065A-4EEB-92D4-0AB3D970406A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25A6C1F4-82B7-4BEF-AA88-42D348AE7998}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AA37495-D540-4FE1-8D57-5AEF44E6A06B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4CD58F2-6F91-4DA3-A64C-7D5624468CC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F73242B4-D8F8-4C90-AFFB-804C01C2EE22}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC3BAA18-FCD5-448A-B25B-5F94F6371CF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A2316E28-A3D7-42B9-BEA4-21CD411A3A61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2D17BD40-2771-4269-8E8F-37F1380124E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF2CEA83-60F7-47B4-A8BF-B8EBC1525EF0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A2A40D0-4BC1-4753-A3C7-17B741FDFF3D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C32F2740-D067-43D1-B811-5C90F3A60FB8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B467725-CBA6-45F5-8116-32BB8AD228DA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31AECED9-9D81-4020-A540-0F79E3D5EFE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90833467-3E5A-4B69-ABD7-F35C45D69264}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E5234F4-B029-4ABB-B176-E1C020BC5EDC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F6A19D6-295F-4DF4-83DA-A29CF8E2CA7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A681D03-CAFE-41B3-B3C3-D646484BAC85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4FBCDB0F-97F7-4CAB-8E92-0213910B7906}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{626A08E5-6725-4144-ADFD-545539C258D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0C25FF3-8CD9-4461-BD4D-37DB56FA9DCB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10580,7 +10580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9CACF2-8D52-4BC9-B517-49F1FA7CBD34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7412836E-165B-4891-9FC4-16ECD487A70C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11877,17 +11877,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B6ACE5C-7E2A-4967-8A6A-C80EB4E8859E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F019B253-B18D-4F5B-8050-85C6B65A028E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC9516DA-AB93-40AA-9D41-077D3ED60D70}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF009B3F-3B44-44DE-B187-45E7787CE916}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFCAB9DE-FD9F-4792-9468-28CBA219FE89}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B25808F8-2761-4598-91D6-9B95BE1C84DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A71011DE-91E4-4543-A748-488C7CD7B23F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FA9BAFC-500C-439C-8ED2-2272249FB486}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0B8B3243-F70B-4581-AD35-B6429D31BCBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DD46F802-07C5-47CF-AB48-2EC5913907D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70BE248F-6190-461C-9B7C-50280466C731}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1EACBCB-EA42-4530-B207-4FEFBEB4BE5A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBB1CF10-F7D7-483A-87BB-2A07107E3CF3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C766E749-D6DB-4122-A2FE-4745DD976B4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A69BD5F-74CC-4E72-93E3-9A1A2AA7E064}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C479C111-2635-41EA-8427-D4D8DC4DDA5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26BBDAE0-5552-4E33-BED6-3C9DFD00F8C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCE1A543-E5FB-4ADA-8D48-1A05B399917A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57AD168F-5B56-4005-A038-24681F452DC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{367603F3-7ACB-4536-ACE7-01A333A4235A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14B4955D-B70E-4A54-A0C9-BDE4CA1B0671}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{168DF03A-8714-477B-9C59-BB812C69989C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11900,7 +11900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DE78B2-E743-4554-A36D-B1EF3B929DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77668947-A64F-4FFC-9310-ED8DD0D5B16B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13197,17 +13197,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9161FA85-4DD9-46D1-8D35-4F2226E0F43D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6590999C-2D89-4D1B-BBEF-BB9BD94EF5A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC14987B-9652-4270-9653-5146D935996A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98B39705-21A3-4816-96A1-C275F9D5F5B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{321A47BB-CA60-4066-89E9-CC3CB42BD9E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B5ED869-A392-4867-B3B7-2C4D48C4268D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69D3D7C0-A047-4CFB-A838-0367F20B072C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06FE6826-119A-45DF-A812-4FEB6F68256B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{43B870C3-6395-45BF-96ED-840CB75E283D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BCDAA131-9E94-4A38-8F1A-2F02E62D35E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B0BDF08-791A-4688-A1BA-820AB475D848}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A32B5AA-8695-437F-A2D8-C4516364EAB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{782A3AF6-3E6C-4D09-9A1A-9740E97BC75B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECDE8FAF-14B8-4DDA-B250-67795F369DA5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2383FDED-18EA-4824-A36D-5CEF5F67E323}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0753770D-2415-4073-BC7B-7E6004B6D93F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73681875-DCC3-4EF5-8B26-D63875970269}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12D4DC4E-38F7-4649-93E9-4AE097DAD2D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC3B10DC-FD74-44F2-9DF4-43A64FB9F059}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D601263B-9155-4ADE-8411-10EA1C0F6249}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DC1D19F6-B699-457E-9AB3-73F190C0D9EE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5AB4BEC-2469-4D96-A11A-C167A8089A6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13220,7 +13220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B09268-F5F4-442A-9896-B01F200C2577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5588F161-8DB5-4DCF-858A-99F41B6A06E3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14517,17 +14517,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC4A7842-86A5-4EB9-A494-CBA493B678D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47EBCB97-ED8A-417E-865B-151F780A09E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F5758666-5188-43FB-988D-F4E7839C6419}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{363C981B-E85A-454B-919C-1C0047099EE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8936275-8290-4FF4-9D0B-A5789D38F606}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0375997-01DB-4AC5-AF02-31A802E64DC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B095F3F8-55DA-490C-AE89-DD3D1F081D2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D87C1DC8-A35B-4B0E-9E9D-267E3A10AC7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78801906-A11E-44AB-AD7C-B7E6E8F8BD72}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FCB0CC7D-7198-4E9B-BE25-E85F1D519155}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0A1986D-6544-4A9A-A4CB-CF22E689FF4D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E644AF2-018E-4EE3-B8D4-ED72CC89D689}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C37267F-49F0-4783-A591-6D099CFCEFE8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1ACD12E4-6009-4F81-9ED0-7917109EEF6C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14C4B2CE-03B1-41E4-8278-A27632576187}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F8F6080-A4F8-4236-B421-0E026E61AA03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7415484-6EA7-4884-8396-14939D990234}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{252E3A67-2C01-4191-B103-17925FE944EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6B7A6EF-4101-4D90-8C4D-805F014291E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4C7131A1-B009-45E2-8C2A-F94C330E4BB1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F9B7E272-2FD2-465B-A620-9A2597D8A02B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{383CC67F-C1B2-4465-BB5F-3C44F94F6CC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14540,7 +14540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750CE7C-904F-4BC2-9DE0-FA0ACC9A0A2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5283122-20E9-409E-80AA-83230C4A7CE7}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15838,17 +15838,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E08F897-7066-4F82-8F8B-121B1B8EF778}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54E6D632-0C44-4B34-8549-87C3761B8D0A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2680AEE-9101-403B-8416-49915EA2C9DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0461974E-EB54-4D87-8506-AFB8B11E61EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41F27A58-00F8-4F61-8B9B-1AC3EE761358}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{64ED6612-D66E-4E4A-8C78-3E385A76FF38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{837BE991-EE8C-4969-916F-FC49A60C03E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E3E2984-7DFA-4014-B468-63A5BF35A019}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5AD0CC03-0FFC-4A28-9DB7-7E2A99A84EEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A1AA4E1E-8AAE-46C6-BA8C-36A3C2E3DD01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5938D26E-6DEF-4007-BA6D-EC828847C02D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BBCD2F3-1A61-4CC6-BE93-6754344A8477}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{199B9F5E-D69E-458D-8C72-FBA7310DAC1F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25769A90-D2F3-4857-A214-2F22CF36F501}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B37E5952-681C-4634-B5D3-B00607C9DB3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30E71BF8-7755-403A-8B8C-9E1E8E6B9EB3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7A9C82F-5B23-49DF-8391-5EA1E9B4EA3A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D58C9E4-EDBA-4BDD-86C5-83B37922C7DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFE4FB7E-B12C-4416-BC3C-846DD49C83F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F3F0762F-3AEA-407F-86CD-437859770F45}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EC665122-AA55-4EEF-991C-4030E202889A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1A738CA-ED71-4F19-A625-AB44A3051F34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15861,7 +15861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6143387D-DB35-4EF4-886B-4B17DA2AEBD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B69DC4B-7E96-43FD-BFC4-FED60B67B17D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17159,17 +17159,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2B7563B-0852-4B9C-AE99-0F68B3A664D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1E5E7CD-E929-4705-8FB2-D7C12158F8E7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1699DCEF-8660-44B4-AD43-3645656B8BB7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3A5CD24-B4A2-41CE-B2B3-AC28B6C70622}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D4AD6756-9BCD-4F0A-8A50-EB05A35CABAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A1D3F3D-7FF6-43E0-AC8F-BDAC5C4AD6EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1392C255-4686-4237-B711-46D7A106E6BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{968C00F4-5E6F-42F1-AA1E-48C83CEE5DC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E02E9456-4B2F-4E44-9599-1A6DD607A66F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7E0F9D3C-1D99-45F5-8D8A-55899D0F72CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EEC7836-7C1D-4993-AFD8-DC8249396AFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E80839D-33A8-420D-B665-1DF9E94DDF8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FC46BC8-F73B-4D4E-9C00-F204378359E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{078217FE-3545-46C5-B3D0-87ECD560138B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3FFE623-F014-4A7E-BE19-4ED2CCD5B3EF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B9D90CF-AAC5-4557-A948-D1A145C8FBD0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B98D707-20C4-4438-BA8C-80BBAFACFDDB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E10A2C2D-2587-4E94-9309-61943A551A9C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B579ABD0-FA9D-40DA-A2E1-8B04BA544006}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B9E3E97F-6C1C-48AB-8D34-C5FDE7DF1E12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B8016446-F737-4552-AF31-7630C171C0F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{154E2336-FDB1-4C7C-8579-0ED7C80E0D0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
